--- a/Output/1968/Texas-Washington/Texas-Washington.xlsx
+++ b/Output/1968/Texas-Washington/Texas-Washington.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunhao/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SanDisk/Cable/Output/1968/Texas-Washington/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,6 +18,11 @@
     <sheet name="Virginia" sheetId="6" r:id="rId4"/>
     <sheet name="Washington" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Texas!$D$1:$J$342</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Virginia!$D$1:$J$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Washington!$D$1:$J$180</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4237" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4222" uniqueCount="699">
   <si>
     <t>Name</t>
   </si>
@@ -1978,12 +1983,6 @@
   </si>
   <si>
     <t>SEATTLE</t>
-  </si>
-  <si>
-    <t>N A</t>
-  </si>
-  <si>
-    <t>N A Top-100 market: Yes</t>
   </si>
   <si>
     <t>Seattle</t>
@@ -3719,8 +3718,8 @@
       <c r="H36" t="s">
         <v>14</v>
       </c>
-      <c r="I36" t="s">
-        <v>14</v>
+      <c r="I36">
+        <v>12</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -4006,11 +4005,11 @@
       <c r="B46">
         <v>0</v>
       </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
+      <c r="D46" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E46" s="2">
+        <v>24167</v>
       </c>
       <c r="F46">
         <v>130</v>
@@ -4396,8 +4395,8 @@
       <c r="H58" t="s">
         <v>14</v>
       </c>
-      <c r="I58" t="s">
-        <v>14</v>
+      <c r="I58">
+        <v>5</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -7584,7 +7583,7 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -7848,8 +7847,8 @@
       <c r="D164" s="1">
         <v>10369</v>
       </c>
-      <c r="E164" t="s">
-        <v>14</v>
+      <c r="E164">
+        <v>1957</v>
       </c>
       <c r="F164" s="1">
         <v>3400</v>
@@ -8209,8 +8208,8 @@
       <c r="H175" s="1">
         <v>5800</v>
       </c>
-      <c r="I175" t="s">
-        <v>14</v>
+      <c r="I175">
+        <v>12</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -8273,8 +8272,8 @@
       <c r="H177" t="s">
         <v>14</v>
       </c>
-      <c r="I177" t="s">
-        <v>14</v>
+      <c r="I177">
+        <v>12</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -8337,8 +8336,8 @@
       <c r="H179">
         <v>700</v>
       </c>
-      <c r="I179" t="s">
-        <v>14</v>
+      <c r="I179">
+        <v>5</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -9472,7 +9471,7 @@
     </row>
     <row r="215" spans="1:12">
       <c r="A215" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -15287,7 +15286,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -19592,7 +19591,7 @@
         <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>697</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -19626,8 +19625,8 @@
       <c r="H25" t="s">
         <v>14</v>
       </c>
-      <c r="I25" t="s">
-        <v>14</v>
+      <c r="I25">
+        <v>12</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -20399,8 +20398,8 @@
       <c r="H50" t="s">
         <v>14</v>
       </c>
-      <c r="I50" t="s">
-        <v>14</v>
+      <c r="I50">
+        <v>12</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -20725,8 +20724,8 @@
       <c r="H60" t="s">
         <v>14</v>
       </c>
-      <c r="I60" t="s">
-        <v>14</v>
+      <c r="I60">
+        <v>12</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -21880,10 +21879,10 @@
         <v>24654</v>
       </c>
       <c r="F97" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G97" t="s">
-        <v>651</v>
+        <v>697</v>
       </c>
       <c r="H97" t="s">
         <v>14</v>
@@ -21897,7 +21896,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -21929,7 +21928,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -21964,7 +21963,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -21993,7 +21992,10 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>686</v>
+        <v>684</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
@@ -22025,7 +22027,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -22036,8 +22038,8 @@
       <c r="E102">
         <v>1958</v>
       </c>
-      <c r="F102" t="s">
-        <v>14</v>
+      <c r="F102">
+        <v>300</v>
       </c>
       <c r="G102" s="1">
         <v>2000</v>
@@ -22054,7 +22056,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -22089,7 +22091,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -22124,7 +22126,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -22159,7 +22161,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -22188,7 +22190,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -22220,7 +22222,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -22255,7 +22257,7 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -22290,7 +22292,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -22325,7 +22327,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -22360,7 +22362,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -22395,13 +22397,13 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>650</v>
+        <v>697</v>
       </c>
       <c r="E113">
         <v>1955</v>
@@ -22424,7 +22426,7 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -22459,7 +22461,7 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -22467,8 +22469,8 @@
       <c r="D115">
         <v>628</v>
       </c>
-      <c r="E115" t="s">
-        <v>14</v>
+      <c r="E115" s="2">
+        <v>19419</v>
       </c>
       <c r="F115">
         <v>145</v>
@@ -22488,7 +22490,7 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -22520,7 +22522,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -22555,7 +22557,7 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -22584,7 +22586,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -22619,7 +22621,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -22654,7 +22656,7 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -22689,7 +22691,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -22724,7 +22726,7 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -22756,7 +22758,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -22791,7 +22793,7 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -22823,7 +22825,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -22858,7 +22860,7 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -22893,7 +22895,7 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -22928,7 +22930,7 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -22963,7 +22965,7 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -22998,7 +23000,7 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -23018,8 +23020,8 @@
       <c r="H131" t="s">
         <v>14</v>
       </c>
-      <c r="I131" t="s">
-        <v>14</v>
+      <c r="I131">
+        <v>3</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -23027,7 +23029,7 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -23056,7 +23058,7 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -23091,13 +23093,13 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
-      <c r="D134" t="s">
-        <v>14</v>
+      <c r="D134">
+        <v>331</v>
       </c>
       <c r="E134">
         <v>1952</v>
@@ -23120,7 +23122,7 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -23149,7 +23151,7 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -23178,7 +23180,7 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -23207,7 +23209,7 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -23242,7 +23244,7 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -23277,7 +23279,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -23312,7 +23314,7 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -23347,7 +23349,7 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -23382,7 +23384,7 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -23411,7 +23413,7 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -23446,7 +23448,7 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -23481,7 +23483,7 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -23857,35 +23859,35 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
